--- a/associassoes.xlsx
+++ b/associassoes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viniciusbarros\OneDrive - unb.br\0Aneel\Previsor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viniciusbarros\OneDrive - unb.br\0Aneel\Previsor\Previsor_Operacao_Comercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D237FFA4-86DD-490A-9211-FB11A9F5BA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FADE14D-AE3A-4F6B-81D1-A1A5273521B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{74B732AD-59D1-4F24-BB3B-F925A4B539CC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>bdworgs</t>
   </si>
@@ -158,12 +158,6 @@
   </si>
   <si>
     <t>DatOutorgaUsina</t>
-  </si>
-  <si>
-    <t>DatConclusaoTorresOutorgado</t>
-  </si>
-  <si>
-    <t>DatConclusaoTorresRealizado</t>
   </si>
   <si>
     <t>Num_UG</t>
@@ -616,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EC3E58-B90E-467A-9F43-003EEA57D1AC}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,17 +747,13 @@
       <c r="A17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="B17" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -805,12 +795,12 @@
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">

--- a/associassoes.xlsx
+++ b/associassoes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viniciusbarros\OneDrive - unb.br\0Aneel\Previsor\Previsor_Operacao_Comercial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unbbr-my.sharepoint.com/personal/180028758_aluno_unb_br/Documents/0Aneel/Previsor/Previsor_Operacao_Comercial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FADE14D-AE3A-4F6B-81D1-A1A5273521B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{45E34DA1-FB9B-4461-9D3C-5AF9E140829E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4035DFD-9DD9-47DA-A37F-E75815826078}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{74B732AD-59D1-4F24-BB3B-F925A4B539CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{74B732AD-59D1-4F24-BB3B-F925A4B539CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>bdworgs</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>Pot_UG</t>
+  </si>
+  <si>
+    <t>DscComercializacaoEnergia</t>
+  </si>
+  <si>
+    <t>DatInicioSuprimento</t>
   </si>
 </sst>
 </file>
@@ -249,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -276,9 +282,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -608,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EC3E58-B90E-467A-9F43-003EEA57D1AC}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,7 +773,7 @@
       <c r="B20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="11"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
@@ -793,21 +796,31 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A27:B1048576 A1:B23 B24:B25">
+  <conditionalFormatting sqref="A28:B1048576 A1:B23 B25:B26 A24">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
